--- a/Summer_23/Coding_Assignments/Code3/Output_1001669855.xlsx
+++ b/Summer_23/Coding_Assignments/Code3/Output_1001669855.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mavsuta-my.sharepoint.com/personal/donna_french_uta_edu/Documents/UTA/Coding Assignments/CSE3318 Summer 2023/Coding Assignment 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_Code\CSE3318\cse3318\Summer_23\Coding_Assignments\Code3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{FB31FDDA-7CB9-4543-B042-55918D3C1F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C55AB78-C49C-4156-B302-D4903945931E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF979B6-AC25-46A7-9406-918444B64938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19410" windowHeight="15480" xr2:uid="{4A00EAFC-8136-4C01-985A-E9A0D427D15A}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4A00EAFC-8136-4C01-985A-E9A0D427D15A}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -169,6 +169,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -180,9 +183,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1601,7 +1601,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,18 +1617,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1646,7 +1646,7 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1657,8 +1657,12 @@
       <c r="A3" s="1">
         <v>1024</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="6">
+        <v>96</v>
+      </c>
+      <c r="C3" s="6">
+        <v>647</v>
+      </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6">
@@ -1674,8 +1678,12 @@
       <c r="A4" s="1">
         <v>10000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="6">
+        <v>1245</v>
+      </c>
+      <c r="C4" s="6">
+        <v>68512</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
@@ -1691,8 +1699,12 @@
       <c r="A5" s="1">
         <v>50000</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="6">
+        <v>6831</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1610573</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
@@ -1708,8 +1720,12 @@
       <c r="A6" s="1">
         <v>100000</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="6">
+        <v>14316</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6333846</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
@@ -1725,8 +1741,12 @@
       <c r="A7" s="1">
         <v>500000</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="6">
+        <v>76768</v>
+      </c>
+      <c r="C7" s="6">
+        <v>160748951</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
@@ -1742,8 +1762,12 @@
       <c r="A8" s="1">
         <v>1000000</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="6">
+        <v>170856</v>
+      </c>
+      <c r="C8" s="6">
+        <v>631667543</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
@@ -1759,8 +1783,12 @@
       <c r="A9" s="1">
         <v>2000000</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="6">
+        <v>353815</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2554129087</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
@@ -1795,422 +1823,422 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2221,66 +2249,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TeamsChannelId xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Math_Settings xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Owner xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <AppVersion xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Invited_Teachers xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <NotebookType xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <FolderType xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Teachers xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Students xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <LMS_Mappings xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Invited_Students xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <CultureName xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Distribution_Groups xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Templates xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A83DF786F562EA48B90A14E3A17B1752" ma:contentTypeVersion="32" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04435168465a9d3ffb693e5aa24447f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="edc47199-8429-4a30-a8c5-19487a2cfb84" xmlns:ns4="7c488e8a-7c9d-4a25-ac1a-3919c0dde376" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c6e2ff4c33b501079b66304ab8bdb54" ns3:_="" ns4:_="">
     <xsd:import namespace="edc47199-8429-4a30-a8c5-19487a2cfb84"/>
@@ -2685,32 +2653,67 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C8FF13-9F74-4FB9-A71F-5902366276EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="7c488e8a-7c9d-4a25-ac1a-3919c0dde376"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="edc47199-8429-4a30-a8c5-19487a2cfb84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2680113-FCEE-4B54-AA0E-217FBB37140B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TeamsChannelId xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Math_Settings xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Owner xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <AppVersion xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Invited_Teachers xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <NotebookType xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <FolderType xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Teachers xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Students xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <LMS_Mappings xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Invited_Students xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <CultureName xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Distribution_Groups xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Templates xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1909F26-CDD3-44B9-8D36-BB8972E78A9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2727,4 +2730,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2680113-FCEE-4B54-AA0E-217FBB37140B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C8FF13-9F74-4FB9-A71F-5902366276EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7c488e8a-7c9d-4a25-ac1a-3919c0dde376"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="edc47199-8429-4a30-a8c5-19487a2cfb84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Summer_23/Coding_Assignments/Code3/Output_1001669855.xlsx
+++ b/Summer_23/Coding_Assignments/Code3/Output_1001669855.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_Code\CSE3318\cse3318\Summer_23\Coding_Assignments\Code3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF979B6-AC25-46A7-9406-918444B64938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21580072-134F-4821-BB2F-5A6802C7D3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4A00EAFC-8136-4C01-985A-E9A0D427D15A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4A00EAFC-8136-4C01-985A-E9A0D427D15A}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,10 @@
     <t>Insertion Sort</t>
   </si>
   <si>
-    <t>Please write your conclusion statements in this box.</t>
+    <t>PC tics</t>
   </si>
   <si>
-    <t>PC tics</t>
+    <t>1.) They all how much merge sort out performs insertion sort in data sizes of vast quanity.                                                                                                                2.) The graphs are very similar only reason that the Big O looks slightly different is the x axis going up faster than the other 2 graphs                          3.) Yes mainly from how long insertion sort over merge sort as it would finish in a few seconds while insertion took a couple minutes. Also was suprised that merge sort ran one of the enviroments I used out of stack memory and had to use a different enviroment.                                                4.) The tics on Omega and my PC faired pretty similar, I'm pretty sure my PC was a bit faster especially with the bigger files, however I also think Omega is rounding its runtime to the nearest 1000 tics, which happens to be the showing the time in seconds.</t>
   </si>
 </sst>
 </file>
@@ -182,7 +182,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,7 +704,1037 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> tics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MergeSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BED5-4DB7-9807-0317EE425AF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Insertion Sort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1610573</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6333846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160748951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>631667543</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2554129087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BED5-4DB7-9807-0317EE425AF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1076183615"/>
+        <c:axId val="1076189375"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1076183615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1076189375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1076189375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1076183615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Omega tics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MergeSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>490000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6023-4E20-9186-46F995F4EFC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Insertion Sort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1830000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7280000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>183230000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>733610000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2941420000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6023-4E20-9186-46F995F4EFC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1076183615"/>
+        <c:axId val="1076189375"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1076183615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1076189375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1076189375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1076183615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1260,6 +2290,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1293,6 +3329,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5643DEAD-CDF9-9D93-7657-7E9A4206CC80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50EC974B-0119-43E7-A6AD-E51C26BED729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1600,8 +3710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13FA7EA-335B-484F-A557-606D409DE0A3}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +3728,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="9" t="s">
@@ -1663,8 +3773,12 @@
       <c r="C3" s="6">
         <v>647</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
       <c r="F3" s="6">
         <f>A3*(LOG(A3,2))</f>
         <v>10240</v>
@@ -1684,8 +3798,12 @@
       <c r="C4" s="6">
         <v>68512</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>70000</v>
+      </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F9" si="0">A4*(LOG(A4,2))</f>
         <v>132877.1237954945</v>
@@ -1705,8 +3823,12 @@
       <c r="C5" s="6">
         <v>1610573</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1830000</v>
+      </c>
       <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>780482.02372184058</v>
@@ -1726,8 +3848,12 @@
       <c r="C6" s="6">
         <v>6333846</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E6" s="6">
+        <v>7280000</v>
+      </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>1660964.0474436812</v>
@@ -1747,8 +3873,12 @@
       <c r="C7" s="6">
         <v>160748951</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6">
+        <v>110000</v>
+      </c>
+      <c r="E7" s="6">
+        <v>183230000</v>
+      </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>9465784.2846620865</v>
@@ -1768,8 +3898,12 @@
       <c r="C8" s="6">
         <v>631667543</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6">
+        <v>230000</v>
+      </c>
+      <c r="E8" s="6">
+        <v>733610000</v>
+      </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>19931568.569324173</v>
@@ -1789,8 +3923,12 @@
       <c r="C9" s="6">
         <v>2554129087</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6">
+        <v>490000</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2941420000</v>
+      </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>41863137.138648346</v>
@@ -1816,15 +3954,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E946A5C8-3680-4556-898C-948DBCA50C60}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2249,6 +4387,66 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TeamsChannelId xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Math_Settings xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Owner xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <AppVersion xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Invited_Teachers xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <NotebookType xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <FolderType xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Teachers xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Students xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <LMS_Mappings xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Invited_Students xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <CultureName xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Distribution_Groups xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Templates xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A83DF786F562EA48B90A14E3A17B1752" ma:contentTypeVersion="32" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04435168465a9d3ffb693e5aa24447f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="edc47199-8429-4a30-a8c5-19487a2cfb84" xmlns:ns4="7c488e8a-7c9d-4a25-ac1a-3919c0dde376" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c6e2ff4c33b501079b66304ab8bdb54" ns3:_="" ns4:_="">
     <xsd:import namespace="edc47199-8429-4a30-a8c5-19487a2cfb84"/>
@@ -2653,67 +4851,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C8FF13-9F74-4FB9-A71F-5902366276EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7c488e8a-7c9d-4a25-ac1a-3919c0dde376"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="edc47199-8429-4a30-a8c5-19487a2cfb84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TeamsChannelId xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Math_Settings xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Owner xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <AppVersion xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Invited_Teachers xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <NotebookType xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <FolderType xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Teachers xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Students xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <LMS_Mappings xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Invited_Students xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <CultureName xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Distribution_Groups xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Templates xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2680113-FCEE-4B54-AA0E-217FBB37140B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1909F26-CDD3-44B9-8D36-BB8972E78A9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2730,29 +4893,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2680113-FCEE-4B54-AA0E-217FBB37140B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C8FF13-9F74-4FB9-A71F-5902366276EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="7c488e8a-7c9d-4a25-ac1a-3919c0dde376"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="edc47199-8429-4a30-a8c5-19487a2cfb84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>